--- a/results.xlsx
+++ b/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -11,12 +11,12 @@
     <sheet name="data_cou" sheetId="2" r:id="rId2"/>
     <sheet name="data_reg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Gigatonnes (Gt)</t>
   </si>
@@ -33,16 +33,16 @@
     <t>re_non-metal</t>
   </si>
   <si>
-    <t>dpo_fossil</t>
-  </si>
-  <si>
-    <t>dpo_biomass</t>
-  </si>
-  <si>
-    <t>dpo_metal</t>
-  </si>
-  <si>
-    <t>dpo_non-metal</t>
+    <t>b_i&amp;c_fossil</t>
+  </si>
+  <si>
+    <t>b_i&amp;c_biomass</t>
+  </si>
+  <si>
+    <t>b_i&amp;c_metal</t>
+  </si>
+  <si>
+    <t>b__i&amp;c_non-metal</t>
   </si>
   <si>
     <t>w_fossil</t>
@@ -84,13 +84,13 @@
     <t>gap_fossil</t>
   </si>
   <si>
-    <t>gap_biomass</t>
-  </si>
-  <si>
-    <t>gap_metal</t>
-  </si>
-  <si>
-    <t>gap_non-metal</t>
+    <t>c_gap_biomass</t>
+  </si>
+  <si>
+    <t>c_gap_metal</t>
+  </si>
+  <si>
+    <t>c_gap_non-metal</t>
   </si>
   <si>
     <t>w_rec_fossil</t>
@@ -105,172 +105,178 @@
     <t>w_rec_non-metal</t>
   </si>
   <si>
-    <t>Resource extraction (t)</t>
-  </si>
-  <si>
-    <t>Waste generation (t)</t>
-  </si>
-  <si>
-    <t>Stock depletion (t)</t>
-  </si>
-  <si>
-    <t>Waste recovery (t)</t>
-  </si>
-  <si>
-    <t>Circularity gap (Gt)</t>
-  </si>
-  <si>
-    <t>Stock additions (t)</t>
-  </si>
-  <si>
-    <t>Dissipative emissions (t)</t>
-  </si>
-  <si>
-    <t>Population (pc)</t>
+    <t>Resource Extraction (tonnes)</t>
+  </si>
+  <si>
+    <t>Stock Additions (tonnes)</t>
+  </si>
+  <si>
+    <t>Waste Generation (tonnes)</t>
+  </si>
+  <si>
+    <t>Stock Depletion (tonnes)</t>
+  </si>
+  <si>
+    <t>Waste recovery (tonnes)</t>
+  </si>
+  <si>
+    <t>Circularity Gap (tonnes)</t>
+  </si>
+  <si>
+    <t>Dissipative emissions from I&amp;C to DPO (tonnes)</t>
+  </si>
+  <si>
+    <t>Population (cap)</t>
+  </si>
+  <si>
+    <t>GDP per capita PPP (GDP/cap-PPP)</t>
+  </si>
+  <si>
+    <t>Material Imports (tonnes)</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
   <si>
     <t>AU</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>BE</t>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>WM</t>
   </si>
   <si>
     <t>BR</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>IN</t>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>KR</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>WA</t>
-  </si>
-  <si>
-    <t>WL</t>
-  </si>
-  <si>
-    <t>WE</t>
-  </si>
-  <si>
-    <t>WF</t>
-  </si>
-  <si>
-    <t>WM</t>
   </si>
   <si>
     <t>World</t>
@@ -312,8 +318,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,11 +382,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -459,7 +460,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -494,7 +494,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,131 +669,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.14334803574126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.14334803574125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.951846115615659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20.95184611561566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.4831572078503119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.483157207850312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>36.896867967427482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.89686796742744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12.92880753470463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12.92880753470462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16.922293940448739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16.92229394044872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.26679534492901208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2667953449290114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.41189633242368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.41189633242363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.88260059892453191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8826005989245302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.1912020473079323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.191202047307934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.1998765929088002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.08199876592908824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.28234865772838219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2823486577283821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.53388886450080453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5338888645008043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.61304519593828277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6130451959382844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -802,87 +801,87 @@
         <v>1.71368800739256</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26.763446794095309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26.76344679409532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.78537054230065284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.785370542300653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.25548413775783302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.255484137757833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.59495073092239381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5949507309223938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.63318211796755386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.6331821179675541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.46602217883648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.466022178836478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.671991116986475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.671991116986478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.7624586451133852E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.0976245864511342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.35470695887604031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3547069588760403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.20194896238870511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2019489623887051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,20 +889,20 @@
         <v>1.774695068079289</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.57932491040034795</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5793249104003478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.56082381681989579</v>
+        <v>0.5608238168198959</v>
       </c>
     </row>
   </sheetData>
@@ -912,14 +911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -944,1397 +943,1691 @@
       <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>1085933598.1004109</v>
+        <v>132219440.8156985</v>
       </c>
       <c r="C2">
-        <v>77721117.659485221</v>
+        <v>95843508.51483171</v>
       </c>
       <c r="D2">
-        <v>19242574.092478871</v>
+        <v>18412606.88566395</v>
       </c>
       <c r="E2">
-        <v>28952235.518154498</v>
+        <v>16441829.20532977</v>
       </c>
       <c r="F2">
-        <v>68011456.23380959</v>
+        <v>13943527.3958737</v>
       </c>
       <c r="G2">
-        <v>112356153.1603635</v>
+        <v>20910908.69512003</v>
       </c>
       <c r="H2">
-        <v>507157060.26942778</v>
+        <v>31906852.81107651</v>
       </c>
       <c r="I2">
-        <v>22340024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8391643</v>
+      </c>
+      <c r="J2">
+        <v>44452.73</v>
+      </c>
+      <c r="K2">
+        <v>74245020.60552409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>132219440.8156985</v>
+        <v>103434222.2563052</v>
       </c>
       <c r="C3">
-        <v>18412606.885663949</v>
+        <v>110619589.4093127</v>
       </c>
       <c r="D3">
-        <v>16441829.20532977</v>
+        <v>27618341.57825284</v>
       </c>
       <c r="E3">
-        <v>13943527.395873699</v>
+        <v>30438416.45588491</v>
       </c>
       <c r="F3">
-        <v>20910908.695120022</v>
+        <v>35204102.832656</v>
       </c>
       <c r="G3">
-        <v>95843508.514831722</v>
+        <v>22852655.20148175</v>
       </c>
       <c r="H3">
-        <v>109939628.56936429</v>
+        <v>400394.1013957262</v>
       </c>
       <c r="I3">
-        <v>8391643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11047744</v>
+      </c>
+      <c r="J3">
+        <v>41248.73</v>
+      </c>
+      <c r="K3">
+        <v>147335237.5099643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>103434222.2563052</v>
+        <v>102580380.1634111</v>
       </c>
       <c r="C4">
-        <v>27618341.578252841</v>
+        <v>40223705.47677846</v>
       </c>
       <c r="D4">
-        <v>30438416.455884911</v>
+        <v>6418102.606433719</v>
       </c>
       <c r="E4">
-        <v>35204102.832656004</v>
+        <v>140770705.2693259</v>
       </c>
       <c r="F4">
-        <v>22852655.201481748</v>
+        <v>3321179.4650768</v>
       </c>
       <c r="G4">
-        <v>110619589.4093127</v>
+        <v>143867628.4106828</v>
       </c>
       <c r="H4">
-        <v>135468782.8199487</v>
+        <v>59259751.54527569</v>
       </c>
       <c r="I4">
-        <v>11047744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7348328</v>
+      </c>
+      <c r="J4">
+        <v>15676.14</v>
+      </c>
+      <c r="K4">
+        <v>40395742.51101431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>1809162481.1000581</v>
+        <v>17464682.58391805</v>
       </c>
       <c r="C5">
-        <v>476406112.45470291</v>
+        <v>11715193.61172166</v>
       </c>
       <c r="D5">
-        <v>37987386.305137232</v>
+        <v>2616081.916765687</v>
       </c>
       <c r="E5">
-        <v>115489155.198672</v>
+        <v>23139670.14912067</v>
       </c>
       <c r="F5">
-        <v>398904343.56116807</v>
+        <v>486222.7507945999</v>
       </c>
       <c r="G5">
-        <v>542460551.34353447</v>
+        <v>25269529.31509176</v>
       </c>
       <c r="H5">
-        <v>1208929587.562727</v>
+        <v>3619629.806225307</v>
       </c>
       <c r="I5">
-        <v>198686688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1124835</v>
+      </c>
+      <c r="J5">
+        <v>25108.33</v>
+      </c>
+      <c r="K5">
+        <v>11985982.38037936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>102580380.1634111</v>
+        <v>177300712.6960641</v>
       </c>
       <c r="C6">
-        <v>6418102.6064337194</v>
+        <v>92499190.52242112</v>
       </c>
       <c r="D6">
-        <v>140770705.26932591</v>
+        <v>13823249.4308597</v>
       </c>
       <c r="E6">
-        <v>3321179.4650768</v>
+        <v>11592509.53454565</v>
       </c>
       <c r="F6">
-        <v>143867628.4106828</v>
+        <v>12706631.646667</v>
       </c>
       <c r="G6">
-        <v>40223705.476778477</v>
+        <v>12709127.31873835</v>
       </c>
       <c r="H6">
-        <v>67322383.489062652</v>
+        <v>83684904.38945028</v>
       </c>
       <c r="I6">
-        <v>7348328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10496088</v>
+      </c>
+      <c r="J6">
+        <v>28797.42</v>
+      </c>
+      <c r="K6">
+        <v>67552275.05683821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>944813988.53163528</v>
+        <v>1068018962.424501</v>
       </c>
       <c r="C7">
-        <v>129581339.13530301</v>
+        <v>708474604.8599676</v>
       </c>
       <c r="D7">
-        <v>27752554.239886999</v>
+        <v>157590209.6357942</v>
       </c>
       <c r="E7">
-        <v>29958697.228300001</v>
+        <v>144085378.8252161</v>
       </c>
       <c r="F7">
-        <v>127375196.14689</v>
+        <v>170210687.86897</v>
       </c>
       <c r="G7">
-        <v>405912468.95159858</v>
+        <v>131464900.5920403</v>
       </c>
       <c r="H7">
-        <v>629018393.23436415</v>
+        <v>372164835.7977087</v>
       </c>
       <c r="I7">
-        <v>34342780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80274983</v>
+      </c>
+      <c r="J7">
+        <v>42692.52</v>
+      </c>
+      <c r="K7">
+        <v>504625766.228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>20820483741.924389</v>
+        <v>89372102.87628099</v>
       </c>
       <c r="C8">
-        <v>1341214694.4441919</v>
+        <v>52633392.88147658</v>
       </c>
       <c r="D8">
-        <v>255824060.1856913</v>
+        <v>15244422.72350652</v>
       </c>
       <c r="E8">
-        <v>667139809.60778987</v>
+        <v>7782582.8796563</v>
       </c>
       <c r="F8">
-        <v>929898945.02209389</v>
+        <v>10958306.416225</v>
       </c>
       <c r="G8">
-        <v>13677167508.499809</v>
+        <v>12068699.18693783</v>
       </c>
       <c r="H8">
-        <v>11698831729.683981</v>
+        <v>32452593.68752288</v>
       </c>
       <c r="I8">
-        <v>1344130000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5570572</v>
+      </c>
+      <c r="J8">
+        <v>44403.39</v>
+      </c>
+      <c r="K8">
+        <v>46438588.25300283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>17464682.58391805</v>
+        <v>20376073.93937547</v>
       </c>
       <c r="C9">
-        <v>2616081.9167656871</v>
+        <v>13008214.76755424</v>
       </c>
       <c r="D9">
-        <v>23139670.14912067</v>
+        <v>2638900.94456839</v>
       </c>
       <c r="E9">
-        <v>486222.75079459988</v>
+        <v>10191151.8342605</v>
       </c>
       <c r="F9">
-        <v>25269529.315091759</v>
+        <v>1334265.774714</v>
       </c>
       <c r="G9">
-        <v>11715193.611721659</v>
+        <v>11495787.00411489</v>
       </c>
       <c r="H9">
-        <v>26913862.384991739</v>
+        <v>6063224.001966842</v>
       </c>
       <c r="I9">
-        <v>1124835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1327439</v>
+      </c>
+      <c r="J9">
+        <v>24543.07</v>
+      </c>
+      <c r="K9">
+        <v>36141135.16633981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>177300712.69606411</v>
+        <v>396356427.4527866</v>
       </c>
       <c r="C10">
-        <v>13823249.4308597</v>
+        <v>288049669.2870016</v>
       </c>
       <c r="D10">
-        <v>11592509.534545651</v>
+        <v>58812620.77640894</v>
       </c>
       <c r="E10">
-        <v>12706631.646667</v>
+        <v>51620857.32841168</v>
       </c>
       <c r="F10">
-        <v>12709127.318738351</v>
+        <v>55125993.69239</v>
       </c>
       <c r="G10">
-        <v>92499190.522421122</v>
+        <v>55307484.41243062</v>
       </c>
       <c r="H10">
-        <v>147069822.7930561</v>
+        <v>104620131.0817661</v>
       </c>
       <c r="I10">
-        <v>10496088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46742697</v>
+      </c>
+      <c r="J10">
+        <v>32068.27</v>
+      </c>
+      <c r="K10">
+        <v>209722974.2383245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>89372102.876281008</v>
+        <v>141745557.2924142</v>
       </c>
       <c r="C11">
-        <v>15244422.723506531</v>
+        <v>68204606.88748538</v>
       </c>
       <c r="D11">
-        <v>7782582.8796562999</v>
+        <v>21195401.03882712</v>
       </c>
       <c r="E11">
-        <v>10958306.416224999</v>
+        <v>33956521.67500373</v>
       </c>
       <c r="F11">
-        <v>12068699.186937829</v>
+        <v>8463758.993334999</v>
       </c>
       <c r="G11">
-        <v>52633392.881476589</v>
+        <v>46688163.72049584</v>
       </c>
       <c r="H11">
-        <v>90553388.985163912</v>
+        <v>60809308.35943672</v>
       </c>
       <c r="I11">
-        <v>5570572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5388272</v>
+      </c>
+      <c r="J11">
+        <v>40683.53</v>
+      </c>
+      <c r="K11">
+        <v>90666271.36322343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>20376073.939375471</v>
+        <v>568799046.6565136</v>
       </c>
       <c r="C12">
-        <v>2638900.94456839</v>
+        <v>431783486.1783105</v>
       </c>
       <c r="D12">
-        <v>10191151.834260499</v>
+        <v>91553966.67993</v>
       </c>
       <c r="E12">
-        <v>1334265.7747140001</v>
+        <v>132396910.1030496</v>
       </c>
       <c r="F12">
-        <v>11495787.00411489</v>
+        <v>76715118.3444</v>
       </c>
       <c r="G12">
-        <v>13008214.76755424</v>
+        <v>147235758.4385796</v>
       </c>
       <c r="H12">
-        <v>31000565.440971699</v>
+        <v>122176712.1426732</v>
       </c>
       <c r="I12">
-        <v>1327439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65342776</v>
+      </c>
+      <c r="J12">
+        <v>37440.64</v>
+      </c>
+      <c r="K12">
+        <v>285100136.1303892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>141745557.29241419</v>
+        <v>150356350.392747</v>
       </c>
       <c r="C13">
-        <v>21195401.038827121</v>
+        <v>71015641.02472235</v>
       </c>
       <c r="D13">
-        <v>33956521.67500373</v>
+        <v>15193652.41804405</v>
       </c>
       <c r="E13">
-        <v>8463758.9933350012</v>
+        <v>53168514.3283321</v>
       </c>
       <c r="F13">
-        <v>46688163.72049585</v>
+        <v>7521431.286183001</v>
       </c>
       <c r="G13">
-        <v>68204606.887485355</v>
+        <v>60840735.46019316</v>
       </c>
       <c r="H13">
-        <v>91146709.953105137</v>
+        <v>71668488.2361636</v>
       </c>
       <c r="I13">
-        <v>5388272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11104899</v>
+      </c>
+      <c r="J13">
+        <v>26141.32</v>
+      </c>
+      <c r="K13">
+        <v>116351652.4145872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>568799046.65651357</v>
+        <v>77253404.08899948</v>
       </c>
       <c r="C14">
-        <v>91553966.679929972</v>
+        <v>35522006.84859732</v>
       </c>
       <c r="D14">
-        <v>132396910.10304961</v>
+        <v>12021714.46196798</v>
       </c>
       <c r="E14">
-        <v>76715118.344400004</v>
+        <v>23006061.27020574</v>
       </c>
       <c r="F14">
-        <v>147235758.43857959</v>
+        <v>6474907.509889999</v>
       </c>
       <c r="G14">
-        <v>431783486.17831051</v>
+        <v>28552868.22228371</v>
       </c>
       <c r="H14">
-        <v>546793971.28151417</v>
+        <v>36184590.28832419</v>
       </c>
       <c r="I14">
-        <v>65342776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9971727</v>
+      </c>
+      <c r="J14">
+        <v>22841.21</v>
+      </c>
+      <c r="K14">
+        <v>39631640.98286074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>1068018962.4245009</v>
+        <v>26379186.42992038</v>
       </c>
       <c r="C15">
-        <v>157590209.63579431</v>
+        <v>22022170.4715816</v>
       </c>
       <c r="D15">
-        <v>144085378.82521611</v>
+        <v>5307633.798488425</v>
       </c>
       <c r="E15">
-        <v>170210687.86897001</v>
+        <v>1260178.96218771</v>
       </c>
       <c r="F15">
-        <v>131464900.5920403</v>
+        <v>1745130.113898</v>
       </c>
       <c r="G15">
-        <v>708474604.85996747</v>
+        <v>4822682.646778136</v>
       </c>
       <c r="H15">
-        <v>1129033275.2590001</v>
+        <v>794512.2737483643</v>
       </c>
       <c r="I15">
-        <v>80274983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4280622</v>
+      </c>
+      <c r="J15">
+        <v>20758.55</v>
+      </c>
+      <c r="K15">
+        <v>33065265.22724859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>150356350.39274701</v>
+        <v>88137962.82621777</v>
       </c>
       <c r="C16">
-        <v>15193652.418044049</v>
+        <v>48988618.87939293</v>
       </c>
       <c r="D16">
-        <v>53168514.328332096</v>
+        <v>17289054.79806271</v>
       </c>
       <c r="E16">
-        <v>7521431.2861829996</v>
+        <v>3348213.161207706</v>
       </c>
       <c r="F16">
-        <v>60840735.460193157</v>
+        <v>9722869.0046</v>
       </c>
       <c r="G16">
-        <v>71015641.024722368</v>
+        <v>10914398.95467041</v>
       </c>
       <c r="H16">
-        <v>197308505.28715059</v>
+        <v>31583158.15336214</v>
       </c>
       <c r="I16">
-        <v>11104899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4576794</v>
+      </c>
+      <c r="J16">
+        <v>44937.56</v>
+      </c>
+      <c r="K16">
+        <v>53148933.29212836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17">
-        <v>77253404.08899948</v>
+        <v>442581766.9412788</v>
       </c>
       <c r="C17">
-        <v>12021714.461967969</v>
+        <v>386110263.4454867</v>
       </c>
       <c r="D17">
-        <v>23006061.27020574</v>
+        <v>62006048.07546507</v>
       </c>
       <c r="E17">
-        <v>6474907.5098900003</v>
+        <v>45999893.89716359</v>
       </c>
       <c r="F17">
-        <v>28552868.22228371</v>
+        <v>60715478.934113</v>
       </c>
       <c r="G17">
-        <v>35522006.848597303</v>
+        <v>47290463.03851565</v>
       </c>
       <c r="H17">
-        <v>78752675.705521986</v>
+        <v>55180934.35444003</v>
       </c>
       <c r="I17">
-        <v>9971727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59379449</v>
+      </c>
+      <c r="J17">
+        <v>36347.34</v>
+      </c>
+      <c r="K17">
+        <v>315784827.1958705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>26379186.429920379</v>
+        <v>25112142.06291801</v>
       </c>
       <c r="C18">
-        <v>5307633.7984884251</v>
+        <v>14280375.79744737</v>
       </c>
       <c r="D18">
-        <v>1260178.96218771</v>
+        <v>3859842.672571362</v>
       </c>
       <c r="E18">
-        <v>1745130.113898</v>
+        <v>2302231.489165334</v>
       </c>
       <c r="F18">
-        <v>4822682.6467781356</v>
+        <v>2406600.211178</v>
       </c>
       <c r="G18">
-        <v>22022170.471581601</v>
+        <v>3755473.950558696</v>
       </c>
       <c r="H18">
-        <v>29986469.284543391</v>
+        <v>9378523.804077281</v>
       </c>
       <c r="I18">
-        <v>4280622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3028115</v>
+      </c>
+      <c r="J18">
+        <v>22854.32</v>
+      </c>
+      <c r="K18">
+        <v>28492107.86713909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>3926459698.690093</v>
+        <v>3029869.363321429</v>
       </c>
       <c r="C19">
-        <v>709827439.1670754</v>
+        <v>4059780.175149516</v>
       </c>
       <c r="D19">
-        <v>40258285.827133507</v>
+        <v>1922525.399836899</v>
       </c>
       <c r="E19">
-        <v>231149564.60078001</v>
+        <v>26589915.6784219</v>
       </c>
       <c r="F19">
-        <v>518936160.39342892</v>
+        <v>3801414.5298877</v>
       </c>
       <c r="G19">
-        <v>1361174811.353477</v>
+        <v>24711026.5483711</v>
       </c>
       <c r="H19">
-        <v>3225346291.753809</v>
+        <v>848978.3182227127</v>
       </c>
       <c r="I19">
-        <v>1247236029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>518347</v>
+      </c>
+      <c r="J19">
+        <v>92005.02</v>
+      </c>
+      <c r="K19">
+        <v>23054220.91116444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>1230109497.0189121</v>
+        <v>19671170.11146364</v>
       </c>
       <c r="C20">
-        <v>130070933.49810129</v>
+        <v>14042250.32671168</v>
       </c>
       <c r="D20">
-        <v>3445513.83041579</v>
+        <v>2930195.476405966</v>
       </c>
       <c r="E20">
-        <v>27833277.5788</v>
+        <v>4841554.56088113</v>
       </c>
       <c r="F20">
-        <v>105683169.7497171</v>
+        <v>1921502.3260448</v>
       </c>
       <c r="G20">
-        <v>329892963.17197222</v>
+        <v>5850247.711242297</v>
       </c>
       <c r="H20">
-        <v>801882177.49734282</v>
+        <v>4620226.634390792</v>
       </c>
       <c r="I20">
-        <v>245707511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2059709</v>
+      </c>
+      <c r="J20">
+        <v>19773.35</v>
+      </c>
+      <c r="K20">
+        <v>24675543.01707985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>88137962.826217785</v>
+        <v>2645688.768589164</v>
       </c>
       <c r="C21">
-        <v>17289054.798062701</v>
+        <v>2168842.113642231</v>
       </c>
       <c r="D21">
-        <v>3348213.1612077062</v>
+        <v>1032362.162259979</v>
       </c>
       <c r="E21">
-        <v>9722869.0045999996</v>
+        <v>14221852.18678633</v>
       </c>
       <c r="F21">
-        <v>10914398.954670411</v>
+        <v>125069.02734612</v>
       </c>
       <c r="G21">
-        <v>48988618.879392937</v>
+        <v>15129145.32170019</v>
       </c>
       <c r="H21">
-        <v>82218061.863290802</v>
+        <v>-430446.4799669264</v>
       </c>
       <c r="I21">
-        <v>4576794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>416268</v>
+      </c>
+      <c r="J21">
+        <v>28612.4</v>
+      </c>
+      <c r="K21">
+        <v>5023708.33261575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>442581766.94127882</v>
+        <v>179327936.4255279</v>
       </c>
       <c r="C22">
-        <v>62006048.075465083</v>
+        <v>107140755.7120092</v>
       </c>
       <c r="D22">
-        <v>45999893.897163592</v>
+        <v>46791224.35769323</v>
       </c>
       <c r="E22">
-        <v>60715478.934113003</v>
+        <v>46004843.26816151</v>
       </c>
       <c r="F22">
-        <v>47290463.038515657</v>
+        <v>55889180.888632</v>
       </c>
       <c r="G22">
-        <v>386110263.44548649</v>
+        <v>36906886.73722273</v>
       </c>
       <c r="H22">
-        <v>534548669.21511823</v>
+        <v>81285137.24445754</v>
       </c>
       <c r="I22">
-        <v>59379449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16693074</v>
+      </c>
+      <c r="J22">
+        <v>46599.02</v>
+      </c>
+      <c r="K22">
+        <v>197770674.4601001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23">
-        <v>771618043.6746372</v>
+        <v>600906753.921993</v>
       </c>
       <c r="C23">
-        <v>132536687.2075326</v>
+        <v>374897546.4250751</v>
       </c>
       <c r="D23">
-        <v>136724531.61663929</v>
+        <v>61605071.51672919</v>
       </c>
       <c r="E23">
-        <v>123388574.7598471</v>
+        <v>51490304.36391327</v>
       </c>
       <c r="F23">
-        <v>145872644.06432471</v>
+        <v>61711184.3125387</v>
       </c>
       <c r="G23">
-        <v>561479466.14550865</v>
+        <v>51384191.56810376</v>
       </c>
       <c r="H23">
-        <v>1578902278.007463</v>
+        <v>226115320.2927276</v>
       </c>
       <c r="I23">
-        <v>127833000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38063255</v>
+      </c>
+      <c r="J23">
+        <v>22850.64</v>
+      </c>
+      <c r="K23">
+        <v>126868102.689757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>19671170.11146364</v>
+        <v>135036379.0110729</v>
       </c>
       <c r="C24">
-        <v>2930195.476405967</v>
+        <v>107453249.8304824</v>
       </c>
       <c r="D24">
-        <v>4841554.5608811304</v>
+        <v>14359250.5668445</v>
       </c>
       <c r="E24">
-        <v>1921502.3260448</v>
+        <v>2984996.717067</v>
       </c>
       <c r="F24">
-        <v>5850247.7112422977</v>
+        <v>6326154.680636</v>
       </c>
       <c r="G24">
-        <v>14042250.32671169</v>
+        <v>11018092.6032755</v>
       </c>
       <c r="H24">
-        <v>18911998.326690089</v>
+        <v>19550033.29438204</v>
       </c>
       <c r="I24">
-        <v>2059709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10557560</v>
+      </c>
+      <c r="J24">
+        <v>26780.21</v>
+      </c>
+      <c r="K24">
+        <v>62725762.11244708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25">
-        <v>25112142.062918011</v>
+        <v>194832627.4233863</v>
       </c>
       <c r="C25">
-        <v>3859842.6725713611</v>
+        <v>104168864.187367</v>
       </c>
       <c r="D25">
-        <v>2302231.489165334</v>
+        <v>25709891.65277835</v>
       </c>
       <c r="E25">
-        <v>2406600.2111780001</v>
+        <v>6433124.538364448</v>
       </c>
       <c r="F25">
-        <v>3755473.950558695</v>
+        <v>14300463.2395639</v>
       </c>
       <c r="G25">
-        <v>14280375.79744737</v>
+        <v>17842552.95157889</v>
       </c>
       <c r="H25">
-        <v>24631086.609945301</v>
+        <v>79254334.82280481</v>
       </c>
       <c r="I25">
-        <v>3028115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20147528</v>
+      </c>
+      <c r="J25">
+        <v>17907.65</v>
+      </c>
+      <c r="K25">
+        <v>39001391.64360747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26">
-        <v>3029869.3633214291</v>
+        <v>144330571.1421052</v>
       </c>
       <c r="C26">
-        <v>1922525.399836899</v>
+        <v>101964811.8716584</v>
       </c>
       <c r="D26">
-        <v>26589915.6784219</v>
+        <v>20579709.69013008</v>
       </c>
       <c r="E26">
-        <v>3801414.5298877</v>
+        <v>38523357.88945678</v>
       </c>
       <c r="F26">
-        <v>24711026.548371099</v>
+        <v>19149071.194245</v>
       </c>
       <c r="G26">
-        <v>4059780.1751495139</v>
+        <v>39953996.38534187</v>
       </c>
       <c r="H26">
-        <v>14850594.746855341</v>
+        <v>40935120.77456173</v>
       </c>
       <c r="I26">
-        <v>518347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9449213</v>
+      </c>
+      <c r="J26">
+        <v>43808.5</v>
+      </c>
+      <c r="K26">
+        <v>74671926.6164217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27">
-        <v>2645688.7685891632</v>
+        <v>24324118.50205027</v>
       </c>
       <c r="C27">
-        <v>1032362.1622599791</v>
+        <v>14790456.13834144</v>
       </c>
       <c r="D27">
-        <v>14221852.186786329</v>
+        <v>3191832.545407491</v>
       </c>
       <c r="E27">
-        <v>125069.02734612</v>
+        <v>2023196.569783342</v>
       </c>
       <c r="F27">
-        <v>15129145.321700189</v>
+        <v>3173120.097944</v>
       </c>
       <c r="G27">
-        <v>2168842.1136422302</v>
+        <v>2041909.017246833</v>
       </c>
       <c r="H27">
-        <v>11408750.70861789</v>
+        <v>9514949.916245341</v>
       </c>
       <c r="I27">
-        <v>416268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2052843</v>
+      </c>
+      <c r="J27">
+        <v>28804.7</v>
+      </c>
+      <c r="K27">
+        <v>24202140.87913557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28">
-        <v>717434206.50372398</v>
+        <v>54160737.22709781</v>
       </c>
       <c r="C28">
-        <v>114521008.1062925</v>
+        <v>40403791.02019194</v>
       </c>
       <c r="D28">
-        <v>23786484.820490651</v>
+        <v>6873255.009204048</v>
       </c>
       <c r="E28">
-        <v>46413992.993906997</v>
+        <v>5657826.783452401</v>
       </c>
       <c r="F28">
-        <v>91893499.93287614</v>
+        <v>3987097.608127999</v>
       </c>
       <c r="G28">
-        <v>258116658.5067364</v>
+        <v>8543984.184528448</v>
       </c>
       <c r="H28">
-        <v>622026603.29401445</v>
+        <v>10870788.80582982</v>
       </c>
       <c r="I28">
-        <v>119090017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5398384</v>
+      </c>
+      <c r="J28">
+        <v>25835</v>
+      </c>
+      <c r="K28">
+        <v>61914758.54912778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>179327936.4255279</v>
+        <v>508528901.5746601</v>
       </c>
       <c r="C29">
-        <v>46791224.357693233</v>
+        <v>348893661.5321137</v>
       </c>
       <c r="D29">
-        <v>46004843.268161513</v>
+        <v>82466992.07451397</v>
       </c>
       <c r="E29">
-        <v>55889180.888632007</v>
+        <v>126725457.809259</v>
       </c>
       <c r="F29">
-        <v>36906886.737222724</v>
+        <v>124214981.745922</v>
       </c>
       <c r="G29">
-        <v>107140755.71200921</v>
+        <v>84977468.13785097</v>
       </c>
       <c r="H29">
-        <v>256214319.7273756</v>
+        <v>201383229.7139545</v>
       </c>
       <c r="I29">
-        <v>16693074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63258918</v>
+      </c>
+      <c r="J29">
+        <v>36820.32</v>
+      </c>
+      <c r="K29">
+        <v>272875709.0155799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30">
-        <v>268525874.48325551</v>
+        <v>268525874.4832555</v>
       </c>
       <c r="C30">
-        <v>8611428.360111123</v>
+        <v>71537736.93554129</v>
       </c>
       <c r="D30">
-        <v>4517460.5723347208</v>
+        <v>8611428.360111121</v>
       </c>
       <c r="E30">
-        <v>3966444.7052369998</v>
+        <v>4517460.572334721</v>
       </c>
       <c r="F30">
-        <v>9162444.2272088435</v>
+        <v>3966444.705237</v>
       </c>
       <c r="G30">
-        <v>71537736.935541317</v>
+        <v>9162444.227208843</v>
       </c>
       <c r="H30">
-        <v>90479222.803284436</v>
+        <v>192343153.8928401</v>
       </c>
       <c r="I30">
         <v>4953088</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>62145.03</v>
+      </c>
+      <c r="K30">
+        <v>35799161.16713561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31">
-        <v>600906753.9219929</v>
+        <v>60462190.3191222</v>
       </c>
       <c r="C31">
-        <v>61605071.516729213</v>
+        <v>63627519.87580232</v>
       </c>
       <c r="D31">
-        <v>51490304.363913268</v>
+        <v>11616682.37092164</v>
       </c>
       <c r="E31">
-        <v>61711184.312538698</v>
+        <v>9841476.647614086</v>
       </c>
       <c r="F31">
-        <v>51384191.568103783</v>
+        <v>12879538.488836</v>
       </c>
       <c r="G31">
-        <v>374897546.42507511</v>
+        <v>8578620.529699726</v>
       </c>
       <c r="H31">
-        <v>400852833.27309269</v>
+        <v>-1902473.438765753</v>
       </c>
       <c r="I31">
-        <v>38063255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7912398</v>
+      </c>
+      <c r="J31">
+        <v>56183.83</v>
+      </c>
+      <c r="K31">
+        <v>55678181.7570466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32">
-        <v>135036379.0110729</v>
+        <v>1041397706.727183</v>
       </c>
       <c r="C32">
-        <v>14359250.566844501</v>
+        <v>169519491.6577956</v>
       </c>
       <c r="D32">
-        <v>2984996.717067</v>
+        <v>75056457.14296447</v>
       </c>
       <c r="E32">
-        <v>6326154.6806360018</v>
+        <v>4773614.758439297</v>
       </c>
       <c r="F32">
-        <v>11018092.603275491</v>
+        <v>32905735.041239</v>
       </c>
       <c r="G32">
-        <v>107453249.83048239</v>
+        <v>46924336.86016476</v>
       </c>
       <c r="H32">
-        <v>78829614.758230969</v>
+        <v>829727492.967662</v>
       </c>
       <c r="I32">
-        <v>10557560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158263341</v>
+      </c>
+      <c r="J32">
+        <v>9773.34</v>
+      </c>
+      <c r="K32">
+        <v>267252254.3442336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33">
-        <v>194832627.42338631</v>
+        <v>746576919.5309731</v>
       </c>
       <c r="C33">
-        <v>25709891.652778331</v>
+        <v>403221883.2633558</v>
       </c>
       <c r="D33">
-        <v>6433124.5383644477</v>
+        <v>56995305.57112522</v>
       </c>
       <c r="E33">
-        <v>14300463.239563899</v>
+        <v>7895529.136069402</v>
       </c>
       <c r="F33">
-        <v>17842552.951578889</v>
+        <v>37015635.66589999</v>
       </c>
       <c r="G33">
-        <v>104168864.1873671</v>
+        <v>27875199.04129463</v>
       </c>
       <c r="H33">
-        <v>148932106.73805711</v>
+        <v>323375366.362392</v>
       </c>
       <c r="I33">
-        <v>20147528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73409455</v>
+      </c>
+      <c r="J33">
+        <v>19660.89</v>
+      </c>
+      <c r="K33">
+        <v>188902935.5394607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34">
-        <v>2548930932.7860961</v>
+        <v>5757821480.642572</v>
       </c>
       <c r="C34">
-        <v>136489920.63916919</v>
+        <v>2062003140.33495</v>
       </c>
       <c r="D34">
+        <v>632416883.2165843</v>
+      </c>
+      <c r="E34">
+        <v>277910088.1171356</v>
+      </c>
+      <c r="F34">
+        <v>290891489.5376661</v>
+      </c>
+      <c r="G34">
+        <v>619435481.7960539</v>
+      </c>
+      <c r="H34">
+        <v>3354292946.628704</v>
+      </c>
+      <c r="I34">
+        <v>311663358</v>
+      </c>
+      <c r="J34">
+        <v>49872.83</v>
+      </c>
+      <c r="K34">
+        <v>1008466670.899946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>944813988.5316354</v>
+      </c>
+      <c r="C35">
+        <v>405912468.9515986</v>
+      </c>
+      <c r="D35">
+        <v>129581339.1353029</v>
+      </c>
+      <c r="E35">
+        <v>27752554.239887</v>
+      </c>
+      <c r="F35">
+        <v>29958697.22830001</v>
+      </c>
+      <c r="G35">
+        <v>127375196.1468899</v>
+      </c>
+      <c r="H35">
+        <v>439278877.6730338</v>
+      </c>
+      <c r="I35">
+        <v>34342780</v>
+      </c>
+      <c r="J35">
+        <v>41565.27</v>
+      </c>
+      <c r="K35">
+        <v>228928985.1849051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>20820483741.92438</v>
+      </c>
+      <c r="C36">
+        <v>13677167508.49981</v>
+      </c>
+      <c r="D36">
+        <v>1341214694.444192</v>
+      </c>
+      <c r="E36">
+        <v>255824060.1856913</v>
+      </c>
+      <c r="F36">
+        <v>667139809.6077899</v>
+      </c>
+      <c r="G36">
+        <v>929898945.0220939</v>
+      </c>
+      <c r="H36">
+        <v>6469241348.588165</v>
+      </c>
+      <c r="I36">
+        <v>1344130000</v>
+      </c>
+      <c r="J36">
+        <v>10384.37</v>
+      </c>
+      <c r="K36">
+        <v>1849100966.365303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>2548930932.786096</v>
+      </c>
+      <c r="C37">
+        <v>528599443.2938796</v>
+      </c>
+      <c r="D37">
+        <v>136489920.6391693</v>
+      </c>
+      <c r="E37">
         <v>257483174.356029</v>
       </c>
-      <c r="E34">
+      <c r="F37">
         <v>65311602.88249936</v>
       </c>
-      <c r="F34">
-        <v>328661492.11269891</v>
-      </c>
-      <c r="G34">
-        <v>528599443.29387963</v>
-      </c>
-      <c r="H34">
-        <v>1992654086.5195401</v>
-      </c>
-      <c r="I34">
+      <c r="G37">
+        <v>328661492.1126989</v>
+      </c>
+      <c r="H37">
+        <v>1949153171.735546</v>
+      </c>
+      <c r="I37">
         <v>142960868</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35">
-        <v>54160737.227097802</v>
-      </c>
-      <c r="C35">
-        <v>6873255.0092040477</v>
-      </c>
-      <c r="D35">
-        <v>5657826.7834524009</v>
-      </c>
-      <c r="E35">
-        <v>3987097.6081279991</v>
-      </c>
-      <c r="F35">
-        <v>8543984.1845284477</v>
-      </c>
-      <c r="G35">
-        <v>40403791.020191938</v>
-      </c>
-      <c r="H35">
-        <v>50994207.27232369</v>
-      </c>
-      <c r="I35">
-        <v>5398384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
-        <v>24324118.502050269</v>
-      </c>
-      <c r="C36">
-        <v>3191832.5454074899</v>
-      </c>
-      <c r="D36">
-        <v>2023196.5697833421</v>
-      </c>
-      <c r="E36">
-        <v>3173120.0979440012</v>
-      </c>
-      <c r="F36">
-        <v>2041909.017246831</v>
-      </c>
-      <c r="G36">
-        <v>14790456.13834144</v>
-      </c>
-      <c r="H36">
-        <v>24021134.8044024</v>
-      </c>
-      <c r="I36">
-        <v>2052843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37">
-        <v>533332448.9810499</v>
-      </c>
-      <c r="C37">
-        <v>62098489.065226331</v>
-      </c>
-      <c r="D37">
+      <c r="J37">
+        <v>24310.04</v>
+      </c>
+      <c r="K37">
+        <v>138742055.0908985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>3926459698.690093</v>
+      </c>
+      <c r="C38">
+        <v>1361174811.353477</v>
+      </c>
+      <c r="D38">
+        <v>709827439.1670754</v>
+      </c>
+      <c r="E38">
+        <v>40258285.82713351</v>
+      </c>
+      <c r="F38">
+        <v>231149564.60078</v>
+      </c>
+      <c r="G38">
+        <v>518936160.3934289</v>
+      </c>
+      <c r="H38">
+        <v>2086607012.77032</v>
+      </c>
+      <c r="I38">
+        <v>1247236029</v>
+      </c>
+      <c r="J38">
+        <v>4635.88</v>
+      </c>
+      <c r="K38">
+        <v>567797155.0988746</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>1085933598.100411</v>
+      </c>
+      <c r="C39">
+        <v>112356153.1603635</v>
+      </c>
+      <c r="D39">
+        <v>77721117.65948521</v>
+      </c>
+      <c r="E39">
+        <v>19242574.09247887</v>
+      </c>
+      <c r="F39">
+        <v>28952235.5181545</v>
+      </c>
+      <c r="G39">
+        <v>68011456.23380958</v>
+      </c>
+      <c r="H39">
+        <v>924808562.7987168</v>
+      </c>
+      <c r="I39">
+        <v>22340024</v>
+      </c>
+      <c r="J39">
+        <v>41894.17</v>
+      </c>
+      <c r="K39">
+        <v>91821275.12715435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>771618043.6746371</v>
+      </c>
+      <c r="C40">
+        <v>561479466.1455086</v>
+      </c>
+      <c r="D40">
+        <v>132536687.2075326</v>
+      </c>
+      <c r="E40">
+        <v>136724531.6166393</v>
+      </c>
+      <c r="F40">
+        <v>123388574.7598471</v>
+      </c>
+      <c r="G40">
+        <v>145872644.0643247</v>
+      </c>
+      <c r="H40">
+        <v>200990465.081443</v>
+      </c>
+      <c r="I40">
+        <v>127833000</v>
+      </c>
+      <c r="J40">
+        <v>35774.7</v>
+      </c>
+      <c r="K40">
+        <v>727544841.2666829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41">
+        <v>533332448.98105</v>
+      </c>
+      <c r="C41">
+        <v>114029396.9561001</v>
+      </c>
+      <c r="D41">
+        <v>62098489.06522631</v>
+      </c>
+      <c r="E41">
         <v>30922881.514718</v>
       </c>
-      <c r="E37">
-        <v>48830208.729342997</v>
-      </c>
-      <c r="F37">
-        <v>44191161.850601353</v>
-      </c>
-      <c r="G37">
-        <v>114029396.95610011</v>
-      </c>
-      <c r="H37">
-        <v>444119096.35220772</v>
-      </c>
-      <c r="I37">
-        <v>51729345.359999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38">
-        <v>497027672.58660108</v>
-      </c>
-      <c r="C38">
-        <v>60461998.488440529</v>
-      </c>
-      <c r="D38">
-        <v>29206449.04684446</v>
-      </c>
-      <c r="E38">
-        <v>43627012.362228014</v>
-      </c>
-      <c r="F38">
-        <v>46041435.173056982</v>
-      </c>
-      <c r="G38">
-        <v>355698787.32716042</v>
-      </c>
-      <c r="H38">
-        <v>715779137.61020732</v>
-      </c>
-      <c r="I38">
-        <v>49936638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39">
-        <v>396356427.45278662</v>
-      </c>
-      <c r="C39">
-        <v>58812620.776408941</v>
-      </c>
-      <c r="D39">
-        <v>51620857.328411683</v>
-      </c>
-      <c r="E39">
-        <v>55125993.692390002</v>
-      </c>
-      <c r="F39">
-        <v>55307484.412430622</v>
-      </c>
-      <c r="G39">
-        <v>288049669.28700149</v>
-      </c>
-      <c r="H39">
-        <v>429324666.49954629</v>
-      </c>
-      <c r="I39">
-        <v>46742697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40">
-        <v>144330571.14210519</v>
-      </c>
-      <c r="C40">
-        <v>20579709.69013007</v>
-      </c>
-      <c r="D40">
-        <v>38523357.889456779</v>
-      </c>
-      <c r="E40">
-        <v>19149071.194244999</v>
-      </c>
-      <c r="F40">
-        <v>39953996.385341853</v>
-      </c>
-      <c r="G40">
-        <v>101964811.8716584</v>
-      </c>
-      <c r="H40">
-        <v>91440735.421110645</v>
-      </c>
-      <c r="I40">
-        <v>9449213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41">
-        <v>60462190.319122203</v>
-      </c>
-      <c r="C41">
-        <v>11616682.37092164</v>
-      </c>
-      <c r="D41">
-        <v>9841476.647614086</v>
-      </c>
-      <c r="E41">
-        <v>12879538.488836</v>
-      </c>
       <c r="F41">
-        <v>8578620.529699726</v>
+        <v>48830208.729343</v>
       </c>
       <c r="G41">
-        <v>63627519.875802323</v>
+        <v>44191161.85060132</v>
       </c>
       <c r="H41">
-        <v>71598303.457461327</v>
+        <v>406034771.6890665</v>
       </c>
       <c r="I41">
-        <v>7912398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51729345.36</v>
+      </c>
+      <c r="J41">
+        <v>12118.74</v>
+      </c>
+      <c r="K41">
+        <v>61232531.98934579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42">
-        <v>746576919.53097308</v>
+        <v>6611535592.928776</v>
       </c>
       <c r="C42">
-        <v>56995305.571125247</v>
+        <v>743685521.3442974</v>
       </c>
       <c r="D42">
-        <v>7895529.1360694021</v>
+        <v>505166505.40338</v>
       </c>
       <c r="E42">
-        <v>37015635.665899992</v>
+        <v>4809217.238312168</v>
       </c>
       <c r="F42">
-        <v>27875199.04129466</v>
+        <v>205601542.3261417</v>
       </c>
       <c r="G42">
-        <v>403221883.26335597</v>
+        <v>304374180.3155505</v>
       </c>
       <c r="H42">
-        <v>470552314.28577858</v>
+        <v>5568285108.50724</v>
       </c>
       <c r="I42">
-        <v>73409455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>849726410</v>
+      </c>
+      <c r="J42">
+        <v>2769.65</v>
+      </c>
+      <c r="K42">
+        <v>296155652.2522029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43">
-        <v>508528901.57466012</v>
+        <v>3567270767.315807</v>
       </c>
       <c r="C43">
-        <v>82466992.074514002</v>
+        <v>1662602157.614099</v>
       </c>
       <c r="D43">
-        <v>126725457.809259</v>
+        <v>142841662.4312034</v>
       </c>
       <c r="E43">
-        <v>124214981.745922</v>
+        <v>20239295.59561605</v>
       </c>
       <c r="F43">
-        <v>84977468.137851</v>
+        <v>54900148.85910171</v>
       </c>
       <c r="G43">
-        <v>348893661.53211367</v>
+        <v>108180809.1677177</v>
       </c>
       <c r="H43">
-        <v>614010876.95795798</v>
+        <v>1816727096.129606</v>
       </c>
       <c r="I43">
-        <v>63258918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>396156980</v>
+      </c>
+      <c r="J43">
+        <v>16589.94</v>
+      </c>
+      <c r="K43">
+        <v>570093922.5620741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44">
-        <v>5757821480.6425724</v>
+        <v>1809162481.100058</v>
       </c>
       <c r="C44">
-        <v>632416883.21658432</v>
+        <v>542460551.3435345</v>
       </c>
       <c r="D44">
-        <v>277910088.11713558</v>
+        <v>476406112.4547027</v>
       </c>
       <c r="E44">
-        <v>290891489.53766608</v>
+        <v>37987386.30513723</v>
       </c>
       <c r="F44">
-        <v>619435481.79605389</v>
+        <v>115489155.198672</v>
       </c>
       <c r="G44">
-        <v>2062003140.33495</v>
+        <v>398904343.561168</v>
       </c>
       <c r="H44">
-        <v>6517358233.9689436</v>
+        <v>905784972.5004925</v>
       </c>
       <c r="I44">
-        <v>311663358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198686688</v>
+      </c>
+      <c r="J44">
+        <v>14973.1</v>
+      </c>
+      <c r="K44">
+        <v>199158216.8809638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45">
-        <v>10972916178.817511</v>
+        <v>717434206.503724</v>
       </c>
       <c r="C45">
-        <v>516904532.46239501</v>
+        <v>258116658.5067365</v>
       </c>
       <c r="D45">
-        <v>12594203.44662695</v>
+        <v>114521008.1062925</v>
       </c>
       <c r="E45">
-        <v>194071899.2016108</v>
+        <v>23786484.82049065</v>
       </c>
       <c r="F45">
-        <v>335426836.70741111</v>
+        <v>46413992.993907</v>
       </c>
       <c r="G45">
-        <v>1746426036.0036199</v>
+        <v>91893499.93287611</v>
       </c>
       <c r="H45">
-        <v>2809272615.9555631</v>
+        <v>391210532.8846021</v>
       </c>
       <c r="I45">
-        <v>813751154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>119090017</v>
+      </c>
+      <c r="J45">
+        <v>16049.36</v>
+      </c>
+      <c r="K45">
+        <v>144026581.3803291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>4069123130.601233</v>
       </c>
       <c r="C46">
-        <v>318546712.17231351</v>
+        <v>743578917.9905343</v>
       </c>
       <c r="D46">
-        <v>6774690.8672065418</v>
+        <v>318546712.1723137</v>
       </c>
       <c r="E46">
-        <v>84810740.510332003</v>
+        <v>6774690.867206542</v>
       </c>
       <c r="F46">
-        <v>240510662.52918801</v>
+        <v>84810740.510332</v>
       </c>
       <c r="G46">
-        <v>743578917.99053431</v>
+        <v>240510662.5291882</v>
       </c>
       <c r="H46">
-        <v>1132179154.6703169</v>
+        <v>3091808240.948717</v>
       </c>
       <c r="I46">
         <v>285822469</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>12392.82</v>
+      </c>
+      <c r="K46">
+        <v>200977242.4116752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47">
-        <v>1041397706.727183</v>
+        <v>497027672.5866011</v>
       </c>
       <c r="C47">
-        <v>75056457.142964438</v>
+        <v>355698787.3271604</v>
       </c>
       <c r="D47">
-        <v>4773614.7584392969</v>
+        <v>60461998.48844053</v>
       </c>
       <c r="E47">
-        <v>32905735.041239008</v>
+        <v>29206449.04684446</v>
       </c>
       <c r="F47">
-        <v>46924336.860164732</v>
+        <v>43627012.362228</v>
       </c>
       <c r="G47">
-        <v>169519491.65779549</v>
+        <v>46041435.173057</v>
       </c>
       <c r="H47">
-        <v>724444637.04606831</v>
+        <v>124493899.1332282</v>
       </c>
       <c r="I47">
-        <v>158263341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49936638</v>
+      </c>
+      <c r="J47">
+        <v>31228.51</v>
+      </c>
+      <c r="K47">
+        <v>460694607.6978192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48">
-        <v>6611535592.9287767</v>
+        <v>1230109497.018912</v>
       </c>
       <c r="C48">
-        <v>505166505.40337998</v>
+        <v>329892963.171972</v>
       </c>
       <c r="D48">
-        <v>4809217.238312168</v>
+        <v>130070933.4981013</v>
       </c>
       <c r="E48">
-        <v>205601542.32614169</v>
+        <v>3445513.83041579</v>
       </c>
       <c r="F48">
-        <v>304374180.31555063</v>
+        <v>27833277.5788</v>
       </c>
       <c r="G48">
-        <v>743685521.34429765</v>
+        <v>105683169.7497171</v>
       </c>
       <c r="H48">
-        <v>2120748694.432133</v>
+        <v>797978877.927639</v>
       </c>
       <c r="I48">
-        <v>849726410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>245707511</v>
+      </c>
+      <c r="J48">
+        <v>8837.82</v>
+      </c>
+      <c r="K48">
+        <v>123134506.6220066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49">
-        <v>3567270767.3158069</v>
+        <v>10972916178.81751</v>
       </c>
       <c r="C49">
-        <v>142841662.4312034</v>
+        <v>1746426036.003621</v>
       </c>
       <c r="D49">
-        <v>20239295.59561605</v>
+        <v>516904532.462395</v>
       </c>
       <c r="E49">
-        <v>54900148.859101713</v>
+        <v>12594203.44662695</v>
       </c>
       <c r="F49">
-        <v>108180809.1677177</v>
+        <v>194071899.2016108</v>
       </c>
       <c r="G49">
-        <v>1662602157.6140981</v>
+        <v>335426836.7074112</v>
       </c>
       <c r="H49">
-        <v>2149603457.6594658</v>
+        <v>8903657509.553108</v>
       </c>
       <c r="I49">
-        <v>396156980</v>
+        <v>813751154</v>
+      </c>
+      <c r="J49">
+        <v>6453.15</v>
+      </c>
+      <c r="K49">
+        <v>754085830.6541398</v>
       </c>
     </row>
   </sheetData>
@@ -2343,14 +2636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,353 +2668,431 @@
       <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>73475219326.634674</v>
+        <v>73475219326.63464</v>
       </c>
       <c r="C2">
-        <v>6438150069.8899345</v>
+        <v>29624068861.92696</v>
       </c>
       <c r="D2">
-        <v>2268987528.9484339</v>
+        <v>6438150069.889935</v>
       </c>
       <c r="E2">
-        <v>3116792757.6882391</v>
+        <v>2268987528.948434</v>
       </c>
       <c r="F2">
-        <v>5590344841.1501312</v>
+        <v>3116792757.688238</v>
       </c>
       <c r="G2">
-        <v>29624068861.926979</v>
+        <v>5590344841.150129</v>
       </c>
       <c r="H2">
-        <v>44973362774.240112</v>
+        <v>40529793152.50598</v>
       </c>
       <c r="I2">
-        <v>6989663635.3600006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6989663635.360001</v>
+      </c>
+      <c r="J2">
+        <v>1418405.32</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>6263762192.9781857</v>
+        <v>7611245866.431152</v>
       </c>
       <c r="C3">
-        <v>832743657.25068247</v>
+        <v>4418884879.929327</v>
       </c>
       <c r="D3">
-        <v>1024640304.348089</v>
+        <v>951344034.338537</v>
       </c>
       <c r="E3">
-        <v>759695985.81462574</v>
+        <v>1084026137.848071</v>
       </c>
       <c r="F3">
-        <v>1097687975.7841461</v>
+        <v>858422805.7930645</v>
       </c>
       <c r="G3">
-        <v>3640765450.2408962</v>
+        <v>1176947366.393544</v>
       </c>
       <c r="H3">
-        <v>5948149028.2097321</v>
+        <v>3099439757.956352</v>
       </c>
       <c r="I3">
-        <v>637077654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>748550364</v>
+      </c>
+      <c r="J3">
+        <v>1088554.97</v>
+      </c>
+      <c r="K3">
+        <v>3561100027.457748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>6702635469.1742077</v>
+        <v>6702635469.174208</v>
       </c>
       <c r="C4">
-        <v>761998222.35188723</v>
+        <v>2467915609.286549</v>
       </c>
       <c r="D4">
-        <v>305662642.35702258</v>
+        <v>761998222.3518872</v>
       </c>
       <c r="E4">
-        <v>320850186.76596612</v>
+        <v>305662642.3570226</v>
       </c>
       <c r="F4">
-        <v>746810677.94294381</v>
+        <v>320850186.7659662</v>
       </c>
       <c r="G4">
-        <v>2467915609.2865491</v>
+        <v>746810677.9429438</v>
       </c>
       <c r="H4">
-        <v>7146376627.2033081</v>
+        <v>3793571824.301738</v>
       </c>
       <c r="I4">
         <v>346006138</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>91438.10000000001</v>
+      </c>
+      <c r="K4">
+        <v>1237395656.084851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>20820483741.924389</v>
+        <v>20820483741.92438</v>
       </c>
       <c r="C5">
-        <v>1341214694.4441919</v>
+        <v>13677167508.49981</v>
       </c>
       <c r="D5">
+        <v>1341214694.444192</v>
+      </c>
+      <c r="E5">
         <v>255824060.1856913</v>
       </c>
-      <c r="E5">
-        <v>667139809.60778987</v>
-      </c>
       <c r="F5">
-        <v>929898945.02209389</v>
+        <v>667139809.6077899</v>
       </c>
       <c r="G5">
-        <v>13677167508.499809</v>
+        <v>929898945.0220939</v>
       </c>
       <c r="H5">
-        <v>11698831729.683981</v>
+        <v>6469241348.588165</v>
       </c>
       <c r="I5">
         <v>1344130000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>10384.37</v>
+      </c>
+      <c r="K5">
+        <v>1849100966.365303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>2548930932.7860961</v>
+        <v>2548930932.786096</v>
       </c>
       <c r="C6">
-        <v>136489920.63916919</v>
+        <v>528599443.2938796</v>
       </c>
       <c r="D6">
+        <v>136489920.6391693</v>
+      </c>
+      <c r="E6">
         <v>257483174.356029</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>65311602.88249936</v>
       </c>
-      <c r="F6">
-        <v>328661492.11269891</v>
-      </c>
       <c r="G6">
-        <v>528599443.29387963</v>
+        <v>328661492.1126989</v>
       </c>
       <c r="H6">
-        <v>1992654086.5195401</v>
+        <v>1949153171.735546</v>
       </c>
       <c r="I6">
         <v>142960868</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>24310.04</v>
+      </c>
+      <c r="K6">
+        <v>138742055.0908985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>3926459698.690093</v>
       </c>
       <c r="C7">
+        <v>1361174811.353477</v>
+      </c>
+      <c r="D7">
         <v>709827439.1670754</v>
       </c>
-      <c r="D7">
-        <v>40258285.827133507</v>
-      </c>
       <c r="E7">
-        <v>231149564.60078001</v>
+        <v>40258285.82713351</v>
       </c>
       <c r="F7">
-        <v>518936160.39342892</v>
+        <v>231149564.60078</v>
       </c>
       <c r="G7">
-        <v>1361174811.353477</v>
+        <v>518936160.3934289</v>
       </c>
       <c r="H7">
-        <v>3225346291.753809</v>
+        <v>2086607012.77032</v>
       </c>
       <c r="I7">
         <v>1247236029</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>4635.88</v>
+      </c>
+      <c r="K7">
+        <v>567797155.0988746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>1085933598.1004109</v>
+        <v>1085933598.100411</v>
       </c>
       <c r="C8">
-        <v>77721117.659485221</v>
+        <v>112356153.1603635</v>
       </c>
       <c r="D8">
-        <v>19242574.092478871</v>
+        <v>77721117.65948521</v>
       </c>
       <c r="E8">
-        <v>28952235.518154498</v>
+        <v>19242574.09247887</v>
       </c>
       <c r="F8">
-        <v>68011456.23380959</v>
+        <v>28952235.5181545</v>
       </c>
       <c r="G8">
-        <v>112356153.1603635</v>
+        <v>68011456.23380958</v>
       </c>
       <c r="H8">
-        <v>507157060.26942778</v>
+        <v>924808562.7987168</v>
       </c>
       <c r="I8">
         <v>22340024</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>41894.17</v>
+      </c>
+      <c r="K8">
+        <v>91821275.12715435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>771618043.6746372</v>
+        <v>771618043.6746371</v>
       </c>
       <c r="C9">
+        <v>561479466.1455086</v>
+      </c>
+      <c r="D9">
         <v>132536687.2075326</v>
       </c>
-      <c r="D9">
-        <v>136724531.61663929</v>
-      </c>
       <c r="E9">
+        <v>136724531.6166393</v>
+      </c>
+      <c r="F9">
         <v>123388574.7598471</v>
       </c>
-      <c r="F9">
-        <v>145872644.06432471</v>
-      </c>
       <c r="G9">
-        <v>561479466.14550865</v>
+        <v>145872644.0643247</v>
       </c>
       <c r="H9">
-        <v>1578902278.007463</v>
+        <v>200990465.081443</v>
       </c>
       <c r="I9">
         <v>127833000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>35774.7</v>
+      </c>
+      <c r="K9">
+        <v>727544841.2666829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>6595719818.2050152</v>
+        <v>6595719818.205015</v>
       </c>
       <c r="C10">
-        <v>909473832.73330903</v>
+        <v>1544156127.840805</v>
       </c>
       <c r="D10">
-        <v>68548561.992834419</v>
+        <v>909473832.7333089</v>
       </c>
       <c r="E10">
-        <v>246713888.70291099</v>
+        <v>68548561.99283442</v>
       </c>
       <c r="F10">
-        <v>731308506.02323234</v>
+        <v>246713888.702911</v>
       </c>
       <c r="G10">
-        <v>1544156127.8408051</v>
+        <v>731308506.0232322</v>
       </c>
       <c r="H10">
-        <v>2963135345.5270591</v>
+        <v>4388803746.333811</v>
       </c>
       <c r="I10">
         <v>603599174</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>43415.28</v>
+      </c>
+      <c r="K10">
+        <v>544162040.6729681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>4313847686.8467798</v>
+        <v>3567270767.315807</v>
       </c>
       <c r="C11">
-        <v>199836968.0023286</v>
+        <v>1662602157.614099</v>
       </c>
       <c r="D11">
-        <v>28134824.731685448</v>
+        <v>142841662.4312034</v>
       </c>
       <c r="E11">
-        <v>91915784.525001705</v>
+        <v>20239295.59561605</v>
       </c>
       <c r="F11">
-        <v>136056008.20901239</v>
+        <v>54900148.85910171</v>
       </c>
       <c r="G11">
-        <v>2065824040.877454</v>
+        <v>108180809.1677177</v>
       </c>
       <c r="H11">
-        <v>2620155771.9452448</v>
+        <v>1816727096.129606</v>
       </c>
       <c r="I11">
-        <v>469566435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>396156980</v>
+      </c>
+      <c r="J11">
+        <v>16589.94</v>
+      </c>
+      <c r="K11">
+        <v>570093922.5620741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12">
-        <v>7144868041.9098263</v>
+        <v>7144868041.909825</v>
       </c>
       <c r="C12">
-        <v>567264994.46860635</v>
+        <v>857714918.3003975</v>
       </c>
       <c r="D12">
-        <v>35732098.753030173</v>
+        <v>567264994.4686062</v>
       </c>
       <c r="E12">
-        <v>254431751.05548471</v>
+        <v>35732098.75303017</v>
       </c>
       <c r="F12">
-        <v>348565342.16615188</v>
+        <v>254431751.0554847</v>
       </c>
       <c r="G12">
-        <v>857714918.30039775</v>
+        <v>348565342.1661518</v>
       </c>
       <c r="H12">
-        <v>2564867790.7843399</v>
+        <v>5974319880.196307</v>
       </c>
       <c r="I12">
-        <v>901455755.36000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>901455755.36</v>
+      </c>
+      <c r="J12">
+        <v>14888.39</v>
+      </c>
+      <c r="K12">
+        <v>357388184.2415487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13">
-        <v>12700053348.423031</v>
+        <v>12700053348.42303</v>
       </c>
       <c r="C13">
-        <v>707437464.4489367</v>
+        <v>2432017786.502753</v>
       </c>
       <c r="D13">
-        <v>45246166.323887207</v>
+        <v>707437464.4489368</v>
       </c>
       <c r="E13">
-        <v>265532189.14263889</v>
+        <v>45246166.32388721</v>
       </c>
       <c r="F13">
-        <v>487151441.63018513</v>
+        <v>265532189.1426388</v>
       </c>
       <c r="G13">
-        <v>2432017786.5027518</v>
+        <v>487151441.6301852</v>
       </c>
       <c r="H13">
-        <v>4326933931.0631123</v>
+        <v>9826130286.613976</v>
       </c>
       <c r="I13">
         <v>1109395303</v>
+      </c>
+      <c r="J13">
+        <v>46519.48</v>
+      </c>
+      <c r="K13">
+        <v>1337914944.973966</v>
       </c>
     </row>
   </sheetData>
